--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" tabRatio="580" activeTab="1"/>
+    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="其他国家" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4034" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="1853">
   <si>
     <t>名字</t>
   </si>
@@ -12671,9 +12671,9 @@
   <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="2"/>
@@ -12811,7 +12811,9 @@
       <c r="B12" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:3">
       <c r="A13" t="s">
@@ -12820,7 +12822,9 @@
       <c r="B13" s="8" t="s">
         <v>1494</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:3">
       <c r="A14" t="s">
@@ -12829,7 +12833,9 @@
       <c r="B14" s="8" t="s">
         <v>1496</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:3">
       <c r="A15" t="s">
@@ -12838,7 +12844,9 @@
       <c r="B15" s="8" t="s">
         <v>1498</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A16" t="s">
@@ -12847,7 +12855,9 @@
       <c r="B16" s="8" t="s">
         <v>1500</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:3">
       <c r="A17" t="s">
